--- a/expense_region.xlsx
+++ b/expense_region.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ภาค</t>
-  </si>
-  <si>
-    <t>จังหวัด</t>
   </si>
   <si>
     <t>ภาคกลาง</t>
@@ -118,12 +115,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -449,208 +443,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="9.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="11" width="9.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="0.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4">
+        <v>2554</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2555</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2556</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2557</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2558</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2559</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2560</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2561</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2562</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
-        <v>2554</v>
-      </c>
-      <c r="D1" s="5">
-        <v>2555</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2556</v>
-      </c>
-      <c r="F1" s="5">
-        <v>2557</v>
-      </c>
-      <c r="G1" s="5">
-        <v>2558</v>
-      </c>
-      <c r="H1" s="5">
-        <v>2559</v>
-      </c>
-      <c r="I1" s="5">
-        <v>2560</v>
-      </c>
-      <c r="J1" s="5">
-        <v>2561</v>
-      </c>
-      <c r="K1" s="5">
-        <v>2562</v>
-      </c>
-      <c r="L1" s="5">
-        <v>2563</v>
+      <c r="B2" s="2">
+        <v>16954</v>
+      </c>
+      <c r="C2" s="2">
+        <v>19762</v>
+      </c>
+      <c r="D2" s="2">
+        <v>19728</v>
+      </c>
+      <c r="E2" s="2">
+        <v>21144</v>
+      </c>
+      <c r="F2" s="2">
+        <v>21055</v>
+      </c>
+      <c r="G2" s="2">
+        <v>20493</v>
+      </c>
+      <c r="H2" s="2">
+        <v>21119.75</v>
+      </c>
+      <c r="I2" s="2">
+        <v>21168</v>
+      </c>
+      <c r="J2" s="2">
+        <v>20644.55</v>
+      </c>
+      <c r="K2" s="2">
+        <v>21771</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>16954</v>
-      </c>
-      <c r="D2" s="3">
-        <v>19762</v>
-      </c>
-      <c r="E2" s="3">
-        <v>19728</v>
-      </c>
-      <c r="F2" s="3">
-        <v>21144</v>
-      </c>
-      <c r="G2" s="3">
-        <v>21055</v>
-      </c>
-      <c r="H2" s="3">
-        <v>20493</v>
-      </c>
-      <c r="I2" s="3">
-        <v>21119.75</v>
-      </c>
-      <c r="J2" s="3">
-        <v>21168</v>
-      </c>
-      <c r="K2" s="3">
-        <v>20644.55</v>
-      </c>
-      <c r="L2" s="3">
-        <v>21771</v>
+      <c r="B3" s="2">
+        <v>13668</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14010</v>
+      </c>
+      <c r="D3" s="2">
+        <v>14066</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15286</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15268</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15769</v>
+      </c>
+      <c r="H3" s="2">
+        <v>15329.12</v>
+      </c>
+      <c r="I3" s="2">
+        <v>15240</v>
+      </c>
+      <c r="J3" s="2">
+        <v>15644.02</v>
+      </c>
+      <c r="K3" s="2">
+        <v>16490</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>13668</v>
-      </c>
-      <c r="D3" s="3">
-        <v>14010</v>
-      </c>
-      <c r="E3" s="3">
-        <v>14066</v>
-      </c>
-      <c r="F3" s="3">
-        <v>15286</v>
-      </c>
-      <c r="G3" s="3">
-        <v>15268</v>
-      </c>
-      <c r="H3" s="3">
-        <v>15769</v>
-      </c>
-      <c r="I3" s="3">
-        <v>15329.12</v>
-      </c>
-      <c r="J3" s="3">
-        <v>15240</v>
-      </c>
-      <c r="K3" s="3">
-        <v>15644.02</v>
-      </c>
-      <c r="L3" s="3">
-        <v>16490</v>
+      <c r="B4" s="2">
+        <v>14375</v>
+      </c>
+      <c r="C4" s="2">
+        <v>14277</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15092</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16284</v>
+      </c>
+      <c r="F4" s="2">
+        <v>17032</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16276</v>
+      </c>
+      <c r="H4" s="2">
+        <v>16513.009999999998</v>
+      </c>
+      <c r="I4" s="2">
+        <v>16343</v>
+      </c>
+      <c r="J4" s="2">
+        <v>16552.64</v>
+      </c>
+      <c r="K4" s="2">
+        <v>16810</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>14375</v>
-      </c>
-      <c r="D4" s="3">
-        <v>14277</v>
-      </c>
-      <c r="E4" s="3">
-        <v>15092</v>
-      </c>
-      <c r="F4" s="3">
-        <v>16284</v>
-      </c>
-      <c r="G4" s="3">
-        <v>17032</v>
-      </c>
-      <c r="H4" s="3">
-        <v>16276</v>
-      </c>
-      <c r="I4" s="3">
-        <v>16513.009999999998</v>
-      </c>
-      <c r="J4" s="3">
-        <v>16343</v>
-      </c>
-      <c r="K4" s="3">
-        <v>16552.64</v>
-      </c>
-      <c r="L4" s="3">
-        <v>16810</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
         <v>19686</v>
       </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
         <v>20645</v>
       </c>
-      <c r="E5" s="3">
+      <c r="D5" s="2">
         <v>20372</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2">
         <v>21016</v>
       </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
         <v>21293</v>
       </c>
-      <c r="H5" s="3">
+      <c r="G5" s="2">
         <v>21314</v>
       </c>
-      <c r="I5" s="3">
+      <c r="H5" s="2">
         <v>21381.41</v>
       </c>
-      <c r="J5" s="3">
+      <c r="I5" s="2">
         <v>20660</v>
       </c>
-      <c r="K5" s="3">
+      <c r="J5" s="2">
         <v>19599.580000000002</v>
       </c>
-      <c r="L5" s="3">
+      <c r="K5" s="2">
         <v>19641</v>
       </c>
     </row>
